--- a/biology/Zoologie/Archiheterodonta/Archiheterodonta.xlsx
+++ b/biology/Zoologie/Archiheterodonta/Archiheterodonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Archiheterodonta sont une infra-classe de mollusques bivalves.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'infra-classe des Archiheterodonta a été créée en 2007 par Gonzalo Giribet (d) dans une publication rédigée par John D. Taylor (d), Suzanne T. Williams (d), Emily A. Glover (d) et Patricia Dyal (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infra-classe des Archiheterodonta a été créée en 2007 par Gonzalo Giribet (d) dans une publication rédigée par John D. Taylor (d), Suzanne T. Williams (d), Emily A. Glover (d) et Patricia Dyal (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (24 décembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (24 décembre 2020) :
 ordre † Actinodontida Deschaseaux, 1952
 ordre Carditida Dall, 1889</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) John D. Taylor, Suzanne T. Williams, Emily A. Glover et Patricia Dyal, « A molecular phylogeny of heterodont bivalves (Mollusca: Bivalvia: Heterodonta): new analyses of 18S and 28S rRNA genes », Zoologica Scripta, Wiley-Blackwell, vol. 36, no 6,‎ novembre 2007, p. 587-606 (ISSN 0300-3256 et 1463-6409, DOI 10.1111/J.1463-6409.2007.00299.X)</t>
         </is>
